--- a/yxx_doc/测试模板/重量模板.xlsx
+++ b/yxx_doc/测试模板/重量模板.xlsx
@@ -14,12 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>是</t>
+  </si>
   <si>
     <t>导出商品详情（必填）</t>
   </si>
   <si>
     <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味5盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味6盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味7盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味8盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味9盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味10盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味11盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味12盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味13盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味14盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味15盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味16盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味17盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味18盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味19盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味20盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味21盒】</t>
+  </si>
+  <si>
+    <t>【[手工订单]【川崎蘸料】川崎蘸料香辣味99g,20盒+京味22盒】</t>
   </si>
 </sst>
 </file>
@@ -1003,22 +1057,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.6666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1026,7 +1082,143 @@
         <v>2.95</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5">
+        <v>3.95</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5">
+        <v>4.95</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5">
+        <v>5.95</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5">
+        <v>6.95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5">
+        <v>7.95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5">
+        <v>8.95</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5">
+        <v>9.95</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5">
+        <v>10.95</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5">
+        <v>11.95</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5">
+        <v>12.95</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5">
+        <v>13.95</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5">
+        <v>14.95</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5">
+        <v>15.95</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5">
+        <v>16.95</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5">
+        <v>17.95</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5">
+        <v>18.95</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5">
+        <v>19.95</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/yxx_doc/测试模板/重量模板.xlsx
+++ b/yxx_doc/测试模板/重量模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>是</t>
+    <t>原始重量（必填）</t>
   </si>
   <si>
     <t>导出商品详情（必填）</t>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
